--- a/document/Calculation Tahunan.xlsx
+++ b/document/Calculation Tahunan.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\My Drive (christiankencana28@gmail.com)\College\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215993E-AAD1-4A89-8729-B141DF48603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0705F-61DA-421F-85A4-213B4FBDDDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model SES (Tahunan)" sheetId="16" r:id="rId1"/>
-    <sheet name="Model DES (Tahunan)" sheetId="28" r:id="rId2"/>
-    <sheet name="Model TES (Tahunan)" sheetId="43" r:id="rId3"/>
+    <sheet name="Model SES" sheetId="16" r:id="rId1"/>
+    <sheet name="Model DES" sheetId="28" r:id="rId2"/>
+    <sheet name="Model TES (Done)" sheetId="43" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -731,9 +731,9 @@
   </sheetPr>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,9 +3018,9 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3139,27 +3139,27 @@
       </c>
       <c r="D3" s="33">
         <f t="shared" ref="D3:D8" si="2">($Q$1*C3)+(1-$Q$1)*D2</f>
-        <v>34860483.600000001</v>
+        <v>34315578</v>
       </c>
       <c r="E3" s="33">
         <f t="shared" ref="E3:E8" si="3">($Q$1*D3)+(1-$Q$1)*E2</f>
-        <v>34983087.359999999</v>
+        <v>34656144</v>
       </c>
       <c r="F3" s="33">
         <f t="shared" ref="F3:F8" si="4">($Q$1*E3)+(1-$Q$1)*F2</f>
-        <v>34995347.736000001</v>
+        <v>34826427</v>
       </c>
       <c r="G3" s="29">
         <f>(3*D3)-(3*E3)+F3</f>
-        <v>34627536.456000015</v>
+        <v>33804729</v>
       </c>
       <c r="H3" s="34">
         <f>(($Q$1)/(2*(1-$Q$1)^2))*((6-5*$Q$1)*D3-(10-8*$Q$1)*E3+(4-3*$Q$1)*F3)</f>
-        <v>-38824.523999995472</v>
+        <v>-766273.5</v>
       </c>
       <c r="I3" s="34">
         <f>(($Q$1^2)/((1-$Q$1)^2))*(D3-(2*E3)+F3)</f>
-        <v>-1362.2639999999494</v>
+        <v>-170283</v>
       </c>
       <c r="J3" s="19">
         <f>G2+H2</f>
@@ -3194,54 +3194,54 @@
       </c>
       <c r="D4" s="29">
         <f t="shared" si="2"/>
-        <v>35827371.140000001</v>
+        <v>39422468.5</v>
       </c>
       <c r="E4" s="29">
         <f t="shared" si="3"/>
-        <v>35067515.738000005</v>
+        <v>37039306.25</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" si="4"/>
-        <v>35002564.536200002</v>
+        <v>35932866.625</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ref="G4:G8" si="9">(3*D4)-(3*E4)+F4</f>
-        <v>37282130.742199987</v>
+        <v>43082353.375</v>
       </c>
       <c r="H4" s="29">
         <f t="shared" ref="H4:H8" si="10">(($Q$1)/(2*(1-$Q$1)^2))*((6-5*$Q$1)*D4-(10-8*$Q$1)*E4+(4-3*$Q$1)*F4)</f>
-        <v>243141.06570000079</v>
+        <v>5574968.8125</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" ref="I4:I8" si="11">(($Q$1^2)/((1-$Q$1)^2))*(D4-(2*E4)+F4)</f>
-        <v>8579.0641999998952</v>
+        <v>1276722.625</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" ref="J4:J8" si="12">G3+H3</f>
-        <v>34588711.932000019</v>
+        <v>33038455.5</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="5"/>
-        <v>9940647.0679999813</v>
+        <v>11490903.5</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="6"/>
-        <v>9940647.0679999813</v>
+        <v>11490903.5</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="7"/>
-        <v>98816464130536.625</v>
+        <v>132040863246312.25</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="8"/>
-        <v>0.22323804544323175</v>
+        <v>0.25805229983211753</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="21">
         <f>L15/COUNT(L2:L8)</f>
-        <v>10102952.630953835</v>
+        <v>8124809.341145833</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3256,54 +3256,54 @@
       </c>
       <c r="D5" s="29">
         <f t="shared" si="2"/>
-        <v>36840418.526000001</v>
+        <v>42690156.75</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="3"/>
-        <v>35244806.016800001</v>
+        <v>39864731.5</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" si="4"/>
-        <v>35026788.684260003</v>
+        <v>37898799.0625</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="9"/>
-        <v>39813626.211860009</v>
+        <v>46375074.8125</v>
       </c>
       <c r="H5" s="29">
         <f t="shared" si="10"/>
-        <v>491926.21421000379</v>
+        <v>4974157.28125</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="11"/>
-        <v>17007.347860000016</v>
+        <v>859492.8125</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="12"/>
-        <v>37525271.807899989</v>
+        <v>48657322.1875</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="5"/>
-        <v>8432573.1921000108</v>
+        <v>-2699477.1875</v>
       </c>
       <c r="L5" s="8">
         <f>ABS(K5)</f>
-        <v>8432573.1921000108</v>
+        <v>2699477.1875</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="7"/>
-        <v>71108290640123.766</v>
+        <v>7287177085832.9102</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="8"/>
-        <v>0.18348495653136065</v>
+        <v>5.8738115059572528E-2</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="23">
         <f>M15/COUNT(M2:M8)</f>
-        <v>162774219395211.91</v>
+        <v>114434358153015.7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3318,54 +3318,54 @@
       </c>
       <c r="D6" s="29">
         <f t="shared" si="2"/>
-        <v>36511806.6734</v>
+        <v>38122228.375</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="3"/>
-        <v>35371506.082460001</v>
+        <v>38993479.9375</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" si="4"/>
-        <v>35061260.424080007</v>
+        <v>38446139.5</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="9"/>
-        <v>38482162.196900003</v>
+        <v>35832384.8125</v>
       </c>
       <c r="H6" s="29">
         <f t="shared" si="10"/>
-        <v>316280.51322000258</v>
+        <v>-4417731.5625</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="11"/>
-        <v>10247.591760000054</v>
+        <v>-1418592</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="12"/>
-        <v>40305552.426070012</v>
+        <v>51349232.09375</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="5"/>
-        <v>-6751252.4260700122</v>
+        <v>-17794932.09375</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ref="L6:L8" si="13">ABS(K6)</f>
-        <v>6751252.4260700122</v>
+        <v>17794932.09375</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="7"/>
-        <v>45579409320516.227</v>
+        <v>316659608221173.75</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="8"/>
-        <v>0.20120379283936821</v>
+        <v>0.53033238940314653</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="21">
         <f>N15/COUNT(N2:N8)</f>
-        <v>0.57467882326114983</v>
+        <v>0.39258636355799964</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3380,47 +3380,47 @@
       </c>
       <c r="D7" s="29">
         <f t="shared" si="2"/>
-        <v>35974196.606059998</v>
+        <v>34628967.1875</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="3"/>
-        <v>35431775.134819999</v>
+        <v>36811223.5625</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" si="4"/>
-        <v>35098311.895154007</v>
+        <v>37628681.53125</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="9"/>
-        <v>36725576.308874004</v>
+        <v>31081912.40625</v>
       </c>
       <c r="H7" s="29">
         <f t="shared" si="10"/>
-        <v>107994.08055900146</v>
+        <v>-5594252.390625</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="11"/>
-        <v>2579.7312540000789</v>
+        <v>-1364798.40625</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" si="12"/>
-        <v>38798442.710120007</v>
+        <v>31414653.25</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="5"/>
-        <v>-7662736.7101200074</v>
+        <v>-278947.25</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="13"/>
-        <v>7662736.7101200074</v>
+        <v>278947.25</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="7"/>
-        <v>58717533888620.797</v>
+        <v>77811568282.5625</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="8"/>
-        <v>0.2461076909616248</v>
+        <v>8.9590790072336893E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3435,47 +3435,47 @@
       </c>
       <c r="D8" s="29">
         <f t="shared" si="2"/>
-        <v>33413309.745453998</v>
+        <v>22497147.59375</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="3"/>
-        <v>35229928.595883399</v>
+        <v>29654185.578125</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" si="4"/>
-        <v>35111473.565226942</v>
+        <v>33641433.5546875</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="9"/>
-        <v>29661617.01393874</v>
+        <v>12170319.6015625</v>
       </c>
       <c r="H8" s="29">
         <f t="shared" si="10"/>
-        <v>-643807.85745620995</v>
+        <v>-15081513.00390625</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" si="11"/>
-        <v>-23889.801001059976</v>
+        <v>-3169790.0078125</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="12"/>
-        <v>36833570.389433004</v>
+        <v>25487660.015625</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="5"/>
-        <v>-26468242.389433004</v>
+        <v>-15122332.015625</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="13"/>
-        <v>26468242.389433004</v>
+        <v>15122332.015625</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="7"/>
-        <v>700567855185778.13</v>
+        <v>228684925590796.88</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="8"/>
-        <v>2.5535364041960857</v>
+        <v>1.4589342484507002</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3488,43 +3488,43 @@
       <c r="C9" s="36"/>
       <c r="D9" s="28">
         <f t="shared" ref="D9:D14" si="14">($Q$1*C9)+(1-$Q$1)*D8</f>
-        <v>30071978.770908598</v>
+        <v>11248573.796875</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" ref="E9:E14" si="15">($Q$1*D9)+(1-$Q$1)*E8</f>
-        <v>34714133.613385916</v>
+        <v>20451379.6875</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ref="F9:F14" si="16">($Q$1*E9)+(1-$Q$1)*F8</f>
-        <v>35071739.570042841</v>
+        <v>27046406.62109375</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ref="G9:G14" si="17">(3*D9)-(3*E9)+F9</f>
-        <v>21145275.042610891</v>
+        <v>-562011.05078125</v>
       </c>
       <c r="H9" s="28">
         <f t="shared" ref="H9:H14" si="18">(($Q$1)/(2*(1-$Q$1)^2))*((6-5*$Q$1)*D9-(10-8*$Q$1)*E9+(4-3*$Q$1)*F9)</f>
-        <v>-1494364.7897527532</v>
+        <v>-15722253.283203125</v>
       </c>
       <c r="I9" s="28">
         <f t="shared" ref="I9:I14" si="19">(($Q$1^2)/((1-$Q$1)^2))*(D9-(2*E9)+F9)</f>
-        <v>-52895.665257041932</v>
+        <v>-2607778.95703125</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" ref="J9:J14" si="20">G8+H8</f>
-        <v>29017809.156482529</v>
+        <v>-2911193.40234375</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" ref="K9:K14" si="21">C9-J9</f>
-        <v>-29017809.156482529</v>
+        <v>2911193.40234375</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" ref="L9:L14" si="22">ABS(K9)</f>
-        <v>29017809.156482529</v>
+        <v>2911193.40234375</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" ref="M9:M14" si="23">(C9-J9)^2</f>
-        <v>842033248242041.25</v>
+        <v>8475047025849.7793</v>
       </c>
       <c r="N9" s="27" t="e">
         <f t="shared" ref="N9:N14" si="24">L9/C9*100%</f>
@@ -3541,43 +3541,43 @@
       <c r="C10" s="36"/>
       <c r="D10" s="28">
         <f t="shared" si="14"/>
-        <v>27064780.893817738</v>
+        <v>5624286.8984375</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="15"/>
-        <v>33949198.341429099</v>
+        <v>13037833.29296875</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="16"/>
-        <v>34959485.447181471</v>
+        <v>20042119.95703125</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" si="17"/>
-        <v>14306233.104347385</v>
+        <v>-2198519.2265625</v>
       </c>
       <c r="H10" s="28">
         <f t="shared" si="18"/>
-        <v>-2106557.6339863385</v>
+        <v>-8436695.720703125</v>
       </c>
       <c r="I10" s="28">
         <f t="shared" si="19"/>
-        <v>-72520.127677271492</v>
+        <v>-409259.73046875</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="20"/>
-        <v>19650910.25285814</v>
+        <v>-16284264.333984375</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="21"/>
-        <v>-19650910.25285814</v>
+        <v>16284264.333984375</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="22"/>
-        <v>19650910.25285814</v>
+        <v>16284264.333984375</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="23"/>
-        <v>386158273765885.13</v>
+        <v>265177264899075.59</v>
       </c>
       <c r="N10" s="27" t="e">
         <f t="shared" si="24"/>
@@ -3594,43 +3594,43 @@
       <c r="C11" s="36"/>
       <c r="D11" s="28">
         <f t="shared" si="14"/>
-        <v>24358302.804435965</v>
+        <v>2812143.44921875</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="15"/>
-        <v>32990108.787729789</v>
+        <v>7924988.37109375</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="16"/>
-        <v>34762547.781236306</v>
+        <v>13983554.1640625</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" si="17"/>
-        <v>8867129.8313548267</v>
+        <v>-1354980.6015625</v>
       </c>
       <c r="H11" s="28">
         <f t="shared" si="18"/>
-        <v>-2525735.1007494973</v>
+        <v>-2748542.744140625</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" si="19"/>
-        <v>-84683.543083793964</v>
+        <v>945720.87109375</v>
       </c>
       <c r="J11" s="26">
         <f t="shared" si="20"/>
-        <v>12199675.470361046</v>
+        <v>-10635214.947265625</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="21"/>
-        <v>-12199675.470361046</v>
+        <v>10635214.947265625</v>
       </c>
       <c r="L11" s="26">
         <f t="shared" si="22"/>
-        <v>12199675.470361046</v>
+        <v>10635214.947265625</v>
       </c>
       <c r="M11" s="26">
         <f t="shared" si="23"/>
-        <v>148832081582129.03</v>
+        <v>113107796974542.17</v>
       </c>
       <c r="N11" s="27" t="e">
         <f t="shared" si="24"/>
@@ -3647,43 +3647,43 @@
       <c r="C12" s="36"/>
       <c r="D12" s="28">
         <f t="shared" si="14"/>
-        <v>21922472.523992367</v>
+        <v>1406071.724609375</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="15"/>
-        <v>31883345.161356047</v>
+        <v>4665530.0478515625</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="16"/>
-        <v>34474627.519248284</v>
+        <v>9324542.1059570313</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" si="17"/>
-        <v>4592009.6071572453</v>
+        <v>-453832.86376953125</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" si="18"/>
-        <v>-2789941.6531666019</v>
+        <v>239426.01391601563</v>
       </c>
       <c r="I12" s="28">
         <f t="shared" si="19"/>
-        <v>-90982.596042857316</v>
+        <v>1399553.7348632813</v>
       </c>
       <c r="J12" s="26">
         <f t="shared" si="20"/>
-        <v>6341394.7306053294</v>
+        <v>-4103523.345703125</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="21"/>
-        <v>-6341394.7306053294</v>
+        <v>4103523.345703125</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="22"/>
-        <v>6341394.7306053294</v>
+        <v>4103523.345703125</v>
       </c>
       <c r="M12" s="26">
         <f t="shared" si="23"/>
-        <v>40213287129349.039</v>
+        <v>16838903848730.568</v>
       </c>
       <c r="N12" s="27" t="e">
         <f t="shared" si="24"/>
@@ -3700,43 +3700,43 @@
       <c r="C13" s="36"/>
       <c r="D13" s="28">
         <f t="shared" si="14"/>
-        <v>19730225.271593131</v>
+        <v>703035.8623046875</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="15"/>
-        <v>30668033.172379758</v>
+        <v>2684282.955078125</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="16"/>
-        <v>34093968.08456143</v>
+        <v>6004412.5305175781</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="17"/>
-        <v>1280544.3822015524</v>
+        <v>60671.252197265625</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="18"/>
-        <v>-2930986.6839045836</v>
+        <v>1365959.1138916016</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="19"/>
-        <v>-92739.172698826616</v>
+        <v>1338882.4826660156</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="20"/>
-        <v>1802067.9539906434</v>
+        <v>-214406.84985351563</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="21"/>
-        <v>-1802067.9539906434</v>
+        <v>214406.84985351563</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="22"/>
-        <v>1802067.9539906434</v>
+        <v>214406.84985351563</v>
       </c>
       <c r="M13" s="26">
         <f t="shared" si="23"/>
-        <v>3247448910800.0234</v>
+        <v>45970297264.107994</v>
       </c>
       <c r="N13" s="27" t="e">
         <f t="shared" si="24"/>
@@ -3753,43 +3753,43 @@
       <c r="C14" s="36"/>
       <c r="D14" s="28">
         <f t="shared" si="14"/>
-        <v>17757202.74443382</v>
+        <v>351517.93115234375</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="15"/>
-        <v>29376950.129585162</v>
+        <v>1517900.4431152344</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" si="16"/>
-        <v>33622266.289063804</v>
+        <v>3761156.4868164063</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" si="17"/>
-        <v>-1236975.8663902208</v>
+        <v>262008.95092773438</v>
       </c>
       <c r="H14" s="28">
         <f t="shared" si="18"/>
-        <v>-2975366.7177939136</v>
+        <v>1525801.3173828125</v>
       </c>
       <c r="I14" s="28">
         <f t="shared" si="19"/>
-        <v>-91042.360810774073</v>
+        <v>1076873.5317382813</v>
       </c>
       <c r="J14" s="26">
         <f t="shared" si="20"/>
-        <v>-1650442.3017030312</v>
+        <v>1426630.3660888672</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="21"/>
-        <v>1650442.3017030312</v>
+        <v>-1426630.3660888672</v>
       </c>
       <c r="L14" s="26">
         <f t="shared" si="22"/>
-        <v>1650442.3017030312</v>
+        <v>1426630.3660888672</v>
       </c>
       <c r="M14" s="26">
         <f t="shared" si="23"/>
-        <v>2723959791250.7993</v>
+        <v>2035274201446.8552</v>
       </c>
       <c r="N14" s="27" t="e">
         <f t="shared" si="24"/>
@@ -3810,23 +3810,23 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11">
         <f>SUM(J2:J8)</f>
-        <v>223048259.26552299</v>
+        <v>224944033.046875</v>
       </c>
       <c r="K15" s="11">
         <f>SUM(K2:K8)</f>
-        <v>-23871275.265523031</v>
+        <v>-25767049.046875</v>
       </c>
       <c r="L15" s="11">
         <f>SUM(L2:L8)</f>
-        <v>60617715.785723016</v>
+        <v>48748856.046875</v>
       </c>
       <c r="M15" s="11">
         <f>SUM(M2:M8)</f>
-        <v>976645316371271.5</v>
+        <v>686606148918094.25</v>
       </c>
       <c r="N15" s="24">
         <f>SUM(N2:N8)</f>
-        <v>3.4480729395668988</v>
+        <v>2.355518181347998</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3843,23 +3843,23 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13">
         <f>AVERAGE(J2:J8)</f>
-        <v>37174709.877587162</v>
+        <v>37490672.174479164</v>
       </c>
       <c r="K16" s="13">
         <f>AVERAGE(K2:K8)</f>
-        <v>-3978545.8775871717</v>
+        <v>-4294508.174479167</v>
       </c>
       <c r="L16" s="13">
         <f>AVERAGE(L2:L8)</f>
-        <v>10102952.630953835</v>
+        <v>8124809.341145833</v>
       </c>
       <c r="M16" s="13">
         <f>AVERAGE(M2:M8)</f>
-        <v>162774219395211.91</v>
+        <v>114434358153015.7</v>
       </c>
       <c r="N16" s="14">
         <f>AVERAGE(N2:N8)</f>
-        <v>0.57467882326114983</v>
+        <v>0.39258636355799964</v>
       </c>
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.25">

--- a/document/Calculation Tahunan.xlsx
+++ b/document/Calculation Tahunan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\My Drive (christiankencana28@gmail.com)\College\Tesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0705F-61DA-421F-85A4-213B4FBDDDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62337FC3-80BA-4118-B084-B2F8111F3738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3EE951E3-974F-482D-BE21-5900CAD23F0C}"/>
   </bookViews>
@@ -3020,7 +3020,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
